--- a/Tables/Sources/gameplay/Facility/FacilityLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLibrary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,16 @@
     <t>ID</t>
   </si>
   <si>
-    <t>升级资源</t>
+    <t>升级资源（id|数量）</t>
   </si>
   <si>
     <t>升级花费</t>
   </si>
   <si>
-    <t>升级条件</t>
-  </si>
-  <si>
-    <t>升级时间</t>
+    <t>升级条件（主船等级）</t>
+  </si>
+  <si>
+    <t>升级时间（s）</t>
   </si>
   <si>
     <t>模型资源</t>
@@ -40,7 +40,7 @@
     <t>技能点</t>
   </si>
   <si>
-    <t>读书时间</t>
+    <t>读书时间（s）</t>
   </si>
   <si>
     <t>A</t>
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -117,6 +117,80 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -126,28 +200,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,54 +229,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,21 +260,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -276,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,16 +486,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,15 +527,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -558,30 +582,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -590,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,25 +1063,25 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="1"/>
-    <col min="2" max="2" width="16.9909090909091" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6727272727273" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8090909090909" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2363636363636" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7727272727273" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1090909090909" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.8181818181818" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.9363636363636" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.72727272727273" style="1"/>
+    <col min="1" max="1" width="8.73148148148148" style="1"/>
+    <col min="2" max="2" width="16.9907407407407" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6759259259259" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8055555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2407407407407" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7685185185185" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.8148148148148" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.9351851851852" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.73148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:9">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:9">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLibrary.xlsx
@@ -92,8 +92,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -117,60 +117,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,63 +217,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,7 +233,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,13 +276,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,169 +432,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,21 +486,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -515,13 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,8 +533,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,18 +574,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,145 +590,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2"/>
@@ -1159,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLibrary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -28,9 +28,6 @@
     <t>升级条件（主船等级）</t>
   </si>
   <si>
-    <t>升级时间（s）</t>
-  </si>
-  <si>
     <t>模型资源</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
   </si>
   <si>
     <t>UpgradePreconditions</t>
-  </si>
-  <si>
-    <t>UpgradeSpeed</t>
   </si>
   <si>
     <t>ModelResources</t>
@@ -90,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -118,68 +112,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,16 +141,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,8 +171,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,16 +210,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,14 +234,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +479,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -496,21 +505,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,8 +536,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,23 +560,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,145 +584,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,27 +1055,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.73148148148148" style="1"/>
     <col min="2" max="2" width="16.9907407407407" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.6759259259259" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.8055555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2407407407407" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7685185185185" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.8148148148148" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.9351851851852" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.73148148148148" style="1"/>
+    <col min="5" max="5" width="27.7685185185185" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.8148148148148" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9351851851852" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.73148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1106,103 +1099,91 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>5000</v>
@@ -1210,28 +1191,25 @@
       <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
         <v>50</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
       </c>
       <c r="H5" s="1">
         <v>50</v>
       </c>
-      <c r="I5" s="1">
-        <v>50</v>
-      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>5000</v>
@@ -1239,28 +1217,25 @@
       <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
         <v>50</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
       </c>
       <c r="H6" s="1">
         <v>50</v>
       </c>
-      <c r="I6" s="1">
-        <v>50</v>
-      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>5000</v>
@@ -1268,28 +1243,25 @@
       <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
         <v>50</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
       </c>
       <c r="H7" s="1">
         <v>50</v>
       </c>
-      <c r="I7" s="1">
-        <v>50</v>
-      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>5000</v>
@@ -1297,28 +1269,25 @@
       <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
         <v>50</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
       </c>
       <c r="H8" s="1">
         <v>50</v>
       </c>
-      <c r="I8" s="1">
-        <v>50</v>
-      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>5000</v>
@@ -1326,28 +1295,25 @@
       <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
         <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
       </c>
       <c r="H9" s="1">
         <v>50</v>
       </c>
-      <c r="I9" s="1">
-        <v>50</v>
-      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>5000</v>
@@ -1355,19 +1321,16 @@
       <c r="D10" s="1">
         <v>20</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
       <c r="H10" s="1">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1">
         <v>50</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Facility/FacilityLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLibrary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -111,6 +111,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -118,16 +142,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,72 +233,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,39 +248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +475,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,39 +534,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -553,6 +544,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,23 +1058,23 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="H5" sqref="H5:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.73148148148148" style="1"/>
-    <col min="2" max="2" width="16.9907407407407" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6759259259259" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8055555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7685185185185" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.8148148148148" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.9351851851852" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.73148148148148" style="1"/>
+    <col min="1" max="1" width="8.72727272727273" style="1"/>
+    <col min="2" max="2" width="16.9909090909091" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1090909090909" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.8181818181818" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9363636363636" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="13.5" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="13.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="13.5" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="13.5" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1195,13 +1195,13 @@
         <v>20</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>50</v>
       </c>
       <c r="H5" s="1">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1227,7 +1227,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="1">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1247,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
         <v>50</v>
       </c>
       <c r="H7" s="1">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1273,13 +1273,13 @@
         <v>20</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1">
         <v>50</v>
       </c>
       <c r="H8" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1299,13 +1299,13 @@
         <v>20</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
         <v>50</v>
       </c>
       <c r="H9" s="1">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1325,13 +1325,13 @@
         <v>20</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1">
         <v>50</v>
       </c>
       <c r="H10" s="1">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
